--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -1,211 +1,380 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halbr\thehalb\git\dpm-assignments\personality and race-IAT study\data\processed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0E827-9A35-4781-8EC8-9CA114279BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explanation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_c9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_e8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_n8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfi_o9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_impossible_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_incomplete_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_bfi_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusion_incomplete_iat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_participant</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>unique_id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>bfi_a1</t>
+  </si>
+  <si>
+    <t>bfi_a2</t>
+  </si>
+  <si>
+    <t>bfi_a3</t>
+  </si>
+  <si>
+    <t>bfi_a4</t>
+  </si>
+  <si>
+    <t>bfi_a5</t>
+  </si>
+  <si>
+    <t>bfi_a6</t>
+  </si>
+  <si>
+    <t>bfi_a7</t>
+  </si>
+  <si>
+    <t>bfi_a8</t>
+  </si>
+  <si>
+    <t>bfi_a9</t>
+  </si>
+  <si>
+    <t>bfi_c1</t>
+  </si>
+  <si>
+    <t>bfi_c2</t>
+  </si>
+  <si>
+    <t>bfi_c3</t>
+  </si>
+  <si>
+    <t>bfi_c4</t>
+  </si>
+  <si>
+    <t>bfi_c5</t>
+  </si>
+  <si>
+    <t>bfi_c6</t>
+  </si>
+  <si>
+    <t>bfi_c7</t>
+  </si>
+  <si>
+    <t>bfi_c8</t>
+  </si>
+  <si>
+    <t>bfi_c9</t>
+  </si>
+  <si>
+    <t>bfi_e1</t>
+  </si>
+  <si>
+    <t>bfi_e2</t>
+  </si>
+  <si>
+    <t>bfi_e3</t>
+  </si>
+  <si>
+    <t>bfi_e4</t>
+  </si>
+  <si>
+    <t>bfi_e5</t>
+  </si>
+  <si>
+    <t>bfi_e6</t>
+  </si>
+  <si>
+    <t>bfi_e7</t>
+  </si>
+  <si>
+    <t>bfi_e8</t>
+  </si>
+  <si>
+    <t>bfi_n1</t>
+  </si>
+  <si>
+    <t>bfi_n2</t>
+  </si>
+  <si>
+    <t>bfi_n3</t>
+  </si>
+  <si>
+    <t>bfi_n4</t>
+  </si>
+  <si>
+    <t>bfi_n5</t>
+  </si>
+  <si>
+    <t>bfi_n6</t>
+  </si>
+  <si>
+    <t>bfi_n7</t>
+  </si>
+  <si>
+    <t>bfi_n8</t>
+  </si>
+  <si>
+    <t>bfi_o1</t>
+  </si>
+  <si>
+    <t>bfi_o10</t>
+  </si>
+  <si>
+    <t>bfi_o2</t>
+  </si>
+  <si>
+    <t>bfi_o3</t>
+  </si>
+  <si>
+    <t>bfi_o4</t>
+  </si>
+  <si>
+    <t>bfi_o5</t>
+  </si>
+  <si>
+    <t>bfi_o6</t>
+  </si>
+  <si>
+    <t>bfi_o7</t>
+  </si>
+  <si>
+    <t>bfi_o8</t>
+  </si>
+  <si>
+    <t>bfi_o9</t>
+  </si>
+  <si>
+    <t>mean_bfi_a</t>
+  </si>
+  <si>
+    <t>mean_bfi_o</t>
+  </si>
+  <si>
+    <t>mean_bfi_c</t>
+  </si>
+  <si>
+    <t>mean_bfi_e</t>
+  </si>
+  <si>
+    <t>mean_bfi_n</t>
+  </si>
+  <si>
+    <t>D_Score</t>
+  </si>
+  <si>
+    <t>exclude_iat</t>
+  </si>
+  <si>
+    <t>exclude_impossible_data</t>
+  </si>
+  <si>
+    <t>exclude_incomplete_data</t>
+  </si>
+  <si>
+    <t>exclude_participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dbl&gt; containing individual subject number </t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; containing the age of the participants, including "other/missing/error"</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; containing the gender of the participants, options are "f",  "m" and other/missing/error</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the first item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the second item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the third item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the fourth item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the fifth item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the sixth item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the seventh item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the eight item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; includes the assessment of the ninth item of the subscale agreeableness of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the first item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the second item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the third item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fourth item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fifth item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the sixth item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the seventh item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the eight item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the ninth item of the conscientiousness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the first item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the second item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the third item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fourth item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fifth item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the sixth item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the seventh item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the eight item of the extraversion subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the first item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the second item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the third item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the fourth item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the fifth item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the sixth item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the seventh item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the eight item of the neuroticism subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the second item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the third item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fourth item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the fifth item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the sixth item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the seventh item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  comprises the assessment of the eight item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the ninth item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the tenth item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; comprises the assessment of the first item of the openness subscale of the bfi</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;  mean values of the agreeableness subscale</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; mean values of the openness subscale</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; mean values of the conscientiousness subscale</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; mean values of the extraversion subscale</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; mean values of the neuroticism subscale</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt; D_Score of the IAT</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; exclusion variable that checks the item level data does not violate the logical minimum and maximum scores</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; exclusion variable that checks that all participants have complete data on the BFI scales they completed</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; exclusion variable for IAT performance ( &gt;10% of the participants trials are &lt; 300ms, or if their accuracy is &lt; than 75%)</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt; master exclusion variable from the individual exclude variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,9 +407,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -522,14 +700,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="77.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,368 +720,464 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7"/>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9"/>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10"/>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11"/>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12"/>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13"/>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14"/>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15"/>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18"/>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19"/>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20"/>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21"/>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22"/>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23"/>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24"/>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25"/>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26"/>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27"/>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28"/>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29"/>
-    </row>
-    <row r="30">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30"/>
-    </row>
-    <row r="31">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31"/>
-    </row>
-    <row r="32">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32"/>
-    </row>
-    <row r="33">
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33"/>
-    </row>
-    <row r="34">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34"/>
-    </row>
-    <row r="35">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35"/>
-    </row>
-    <row r="36">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36"/>
-    </row>
-    <row r="37">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37"/>
-    </row>
-    <row r="38">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38"/>
-    </row>
-    <row r="39">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39"/>
-    </row>
-    <row r="40">
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40"/>
-    </row>
-    <row r="41">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41"/>
-    </row>
-    <row r="42">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42"/>
-    </row>
-    <row r="43">
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43"/>
-    </row>
-    <row r="44">
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44"/>
-    </row>
-    <row r="45">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45"/>
-    </row>
-    <row r="46">
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46"/>
-    </row>
-    <row r="47">
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47"/>
-    </row>
-    <row r="48">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48"/>
-    </row>
-    <row r="49">
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49"/>
-    </row>
-    <row r="50">
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50"/>
-    </row>
-    <row r="51">
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51"/>
-    </row>
-    <row r="52">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52"/>
-    </row>
-    <row r="53">
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53"/>
-    </row>
-    <row r="54">
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54"/>
-    </row>
-    <row r="55">
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55"/>
-    </row>
-    <row r="56">
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56"/>
-    </row>
-    <row r="57">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57"/>
-    </row>
-    <row r="58">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61"/>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>